--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>namefirst</t>
   </si>
@@ -148,6 +145,42 @@
   </si>
   <si>
     <t>TATA - LXI(petrol)</t>
+  </si>
+  <si>
+    <t>ID(PK)</t>
+  </si>
+  <si>
+    <t>Driver_Address Table</t>
+  </si>
+  <si>
+    <t>driverID(FK)</t>
+  </si>
+  <si>
+    <t>Driver_Licence Table</t>
+  </si>
+  <si>
+    <t>Driver_Phone Table</t>
+  </si>
+  <si>
+    <t>onduty Table</t>
+  </si>
+  <si>
+    <t>vehicleID(FK)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dutyhistory Table</t>
+  </si>
+  <si>
+    <t>loginon</t>
+  </si>
+  <si>
+    <t>logouton</t>
   </si>
 </sst>
 </file>
@@ -244,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +306,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,14 +595,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -574,7 +610,7 @@
     <col min="7" max="7" width="12.85546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="15" style="5" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="5" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -584,7 +620,7 @@
   <sheetData>
     <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -593,7 +629,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -602,40 +638,40 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -643,13 +679,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>CONCATENATE(C6,".",D6,"@gmail.com")</f>
@@ -659,19 +695,19 @@
         <v>9897663185</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="7">
         <v>1</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="9">
         <v>4</v>
@@ -682,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" ref="F7:F10" si="0">CONCATENATE(C7,".",D7,"@gmail.com")</f>
@@ -698,19 +734,19 @@
         <v>9860812334</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="7">
         <v>2</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="9">
         <v>6</v>
@@ -721,13 +757,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -737,19 +773,19 @@
         <v>8950338110</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="7">
         <v>3</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="9">
         <v>10</v>
@@ -760,13 +796,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -776,19 +812,19 @@
         <v>7870427824</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="7">
         <v>4</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="9">
         <v>32</v>
@@ -799,13 +835,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -815,19 +851,19 @@
         <v>7850339654</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="7">
         <v>5</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="N10" s="9">
         <v>6</v>
@@ -991,21 +1027,845 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:BD1"/>
+  <dimension ref="B4:AI25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="49" width="9.140625" style="5"/>
-    <col min="53" max="53" width="9.140625" style="5"/>
-    <col min="57" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="3.85546875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="5" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="5" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="5"/>
+    <col min="30" max="30" width="3.85546875" style="5" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="5" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:35" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="R4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="V4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Z4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AE4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f>CONCATENATE(C6,".",D6,"@gmail.com")</f>
+        <v>sanjay.patil@gmail.com</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9897663185</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="9">
+        <v>4</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="9">
+        <v>9897663185</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AE6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" ref="E7:E10" si="0">CONCATENATE(C7,".",D7,"@gmail.com")</f>
+        <v>sanju.das@gmail.com</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9860812334</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="9">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2</v>
+      </c>
+      <c r="O7" s="7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="7">
+        <v>2</v>
+      </c>
+      <c r="S7" s="7">
+        <v>2</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="7">
+        <v>2</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="9">
+        <v>9860812334</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AE7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ravi.kumar@gmail.com</v>
+      </c>
+      <c r="F8" s="9">
+        <v>8950338110</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="9">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7">
+        <v>3</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="7">
+        <v>3</v>
+      </c>
+      <c r="S8" s="7">
+        <v>3</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="7">
+        <v>3</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="9">
+        <v>8950338110</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AE8" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>raj.gandhi@gmail.com</v>
+      </c>
+      <c r="F9" s="9">
+        <v>7870427824</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="9">
+        <v>32</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4</v>
+      </c>
+      <c r="O9" s="7">
+        <v>4</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="7">
+        <v>4</v>
+      </c>
+      <c r="S9" s="7">
+        <v>4</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="7">
+        <v>4</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" s="9">
+        <v>7870427824</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AE9" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>raj.kumar@gmail.com</v>
+      </c>
+      <c r="F10" s="9">
+        <v>7850339654</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5</v>
+      </c>
+      <c r="O10" s="7">
+        <v>5</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="7">
+        <v>5</v>
+      </c>
+      <c r="S10" s="7">
+        <v>5</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="7">
+        <v>5</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="9">
+        <v>7850339654</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AE10" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="4"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="3"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="4"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="4"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="4"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="3"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="4"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="4"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="4"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="4"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="4"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="4"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="3"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="4"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="4"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="4"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="3"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="4"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="4"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="4"/>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="4"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="3"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="4"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="4"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="4"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="3"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="4"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="4"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="4"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="3"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="4"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="4"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="4"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="4"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="4"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="4"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="3"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="4"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="4"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="4"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="4"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="4"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="4"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="4"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="4"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="4"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="4"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="3"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="4"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="4"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="3"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="2"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="2"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="2"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="3"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="2"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>namefirst</t>
   </si>
@@ -1027,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AI25"/>
+  <dimension ref="B4:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,81 +1040,79 @@
     <col min="3" max="3" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="3.85546875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="5" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="5" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="5"/>
-    <col min="30" max="30" width="3.85546875" style="5" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="5" customWidth="1"/>
-    <col min="32" max="32" width="13.42578125" style="5" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="5" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="5" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="5"/>
+    <col min="29" max="29" width="3.85546875" style="5" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="5" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" style="5" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:35" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:34" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="R4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="V4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Z4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AE4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
@@ -1127,80 +1125,77 @@
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="Z5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AE5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="AG5" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI5" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -1214,66 +1209,63 @@
         <f>CONCATENATE(C6,".",D6,"@gmail.com")</f>
         <v>sanjay.patil@gmail.com</v>
       </c>
-      <c r="F6" s="9">
-        <v>9897663185</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="9">
+      <c r="K6" s="9">
         <v>4</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
       </c>
       <c r="N6" s="7">
         <v>1</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7">
         <v>1</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="R6" s="7">
         <v>1</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="7">
         <v>1</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="V6" s="7">
         <v>1</v>
       </c>
-      <c r="W6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="9">
+      <c r="W6" s="9">
         <v>9897663185</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Y6" s="7">
         <v>1</v>
       </c>
-      <c r="AA6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AE6" s="7">
+      <c r="AD6" s="7">
         <v>1</v>
       </c>
-      <c r="AF6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1287,66 +1279,63 @@
         <f t="shared" ref="E7:E10" si="0">CONCATENATE(C7,".",D7,"@gmail.com")</f>
         <v>sanju.das@gmail.com</v>
       </c>
-      <c r="F7" s="9">
-        <v>9860812334</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="9">
+      <c r="K7" s="9">
         <v>6</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
       </c>
       <c r="N7" s="7">
         <v>2</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7">
         <v>2</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="R7" s="7">
         <v>2</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="7">
         <v>2</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="V7" s="7">
         <v>2</v>
       </c>
-      <c r="W7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="9">
+      <c r="W7" s="9">
         <v>9860812334</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Y7" s="7">
         <v>2</v>
       </c>
-      <c r="AA7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AE7" s="7">
+      <c r="AD7" s="7">
         <v>2</v>
       </c>
-      <c r="AF7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1360,66 +1349,63 @@
         <f t="shared" si="0"/>
         <v>ravi.kumar@gmail.com</v>
       </c>
-      <c r="F8" s="9">
-        <v>8950338110</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="7">
         <v>3</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="9">
+      <c r="K8" s="9">
         <v>10</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3</v>
       </c>
       <c r="N8" s="7">
         <v>3</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="7">
         <v>3</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="R8" s="7">
         <v>3</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="7">
         <v>3</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="V8" s="7">
         <v>3</v>
       </c>
-      <c r="W8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="X8" s="9">
+      <c r="W8" s="9">
         <v>8950338110</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Y8" s="7">
         <v>3</v>
       </c>
-      <c r="AA8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AE8" s="7">
+      <c r="AD8" s="7">
         <v>3</v>
       </c>
-      <c r="AF8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1433,66 +1419,63 @@
         <f t="shared" si="0"/>
         <v>raj.gandhi@gmail.com</v>
       </c>
-      <c r="F9" s="9">
-        <v>7870427824</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="7">
         <v>4</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="9">
+      <c r="K9" s="9">
         <v>32</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4</v>
       </c>
       <c r="N9" s="7">
         <v>4</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="7">
         <v>4</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="R9" s="7">
         <v>4</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="7">
         <v>4</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="V9" s="7">
         <v>4</v>
       </c>
-      <c r="W9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X9" s="9">
+      <c r="W9" s="9">
         <v>7870427824</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Y9" s="7">
         <v>4</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AE9" s="7">
+      <c r="AD9" s="7">
         <v>4</v>
       </c>
-      <c r="AF9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1506,364 +1489,361 @@
         <f t="shared" si="0"/>
         <v>raj.kumar@gmail.com</v>
       </c>
-      <c r="F10" s="9">
-        <v>7850339654</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="7">
         <v>5</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="9">
+      <c r="K10" s="9">
         <v>6</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
       </c>
       <c r="N10" s="7">
         <v>5</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="7">
         <v>5</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="R10" s="7">
         <v>5</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="7">
         <v>5</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="V10" s="7">
         <v>5</v>
       </c>
-      <c r="W10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X10" s="9">
+      <c r="W10" s="9">
         <v>7850339654</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Y10" s="7">
         <v>5</v>
       </c>
-      <c r="AA10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AE10" s="7">
+      <c r="AD10" s="7">
         <v>5</v>
       </c>
-      <c r="AF10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="4"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="3"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="4"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="4"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="4"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="4"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="4"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="4"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="3"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="4"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="4"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="4"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="4"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="4"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="4"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="3"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="4"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="4"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="4"/>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="4"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="4"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="4"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="4"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="3"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="4"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="4"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="4"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="4"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="4"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="4"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="3"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="4"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="4"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="3"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="4"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="4"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="4"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="4"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="3"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="4"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="4"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="4"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="4"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="4"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="4"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="3"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="4"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="4"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="3"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="4"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="4"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="4"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="4"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="4"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="4"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="4"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="4"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="4"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="4"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="4"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="4"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="4"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="4"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="4"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="4"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="4"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="4"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="3"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="4"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="4"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="4"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="4"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="4"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="4"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="3"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="4"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="4"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="4"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="4"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="4"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="4"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="3"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="4"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="4"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="4"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="4"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="3"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="4"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="4"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="3"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="4"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="4"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="4"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="3"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="2"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="2"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="2"/>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="2"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="2"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="2"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="3"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="2"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="2"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="2"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="2"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>namefirst</t>
   </si>
@@ -181,15 +181,25 @@
   </si>
   <si>
     <t>logouton</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>DOE</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -277,7 +287,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,6 +321,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1027,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AH25"/>
+  <dimension ref="B4:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,27 +1061,28 @@
     <col min="13" max="13" width="8" style="5" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="3.85546875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" style="5" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="5"/>
-    <col min="29" max="29" width="3.85546875" style="5" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" style="5" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="5" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" style="5" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="5"/>
+    <col min="16" max="17" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="5" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="5" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="5" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="5"/>
+    <col min="31" max="31" width="3.85546875" style="5" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" style="5" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" style="5" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:34" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1084,35 +1096,37 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="Q4" s="11" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="S4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="U4" s="11" t="s">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="W4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="Y4" s="11" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="AA4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
-      <c r="AD4" s="12" t="s">
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AF4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
@@ -1147,55 +1161,61 @@
         <v>42</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="W5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="X5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AB5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AC5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AD5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AH5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AI5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -1233,39 +1253,47 @@
       <c r="O6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="P6" s="13">
+        <f ca="1">NOW()-20000</f>
+        <v>23505.563919791668</v>
+      </c>
+      <c r="Q6" s="13">
+        <f ca="1">NOW()+20000</f>
+        <v>63505.563919791668</v>
+      </c>
+      <c r="S6" s="7">
         <v>1</v>
       </c>
-      <c r="R6" s="7">
+      <c r="T6" s="7">
         <v>1</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="U6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="7">
+      <c r="W6" s="7">
         <v>1</v>
       </c>
-      <c r="V6" s="7">
+      <c r="X6" s="7">
         <v>1</v>
       </c>
-      <c r="W6" s="9">
+      <c r="Y6" s="9">
         <v>9897663185</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="AA6" s="7">
         <v>1</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AD6" s="7">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AF6" s="7">
         <v>1</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
+      <c r="AG6" s="8"/>
       <c r="AH6" s="9"/>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1303,39 +1331,47 @@
       <c r="O7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="P7" s="13">
+        <f t="shared" ref="P7:P10" ca="1" si="1">NOW()-20000</f>
+        <v>23505.563919791668</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" ref="Q7:Q10" ca="1" si="2">NOW()+20000</f>
+        <v>63505.563919791668</v>
+      </c>
+      <c r="S7" s="7">
         <v>2</v>
       </c>
-      <c r="R7" s="7">
+      <c r="T7" s="7">
         <v>2</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="U7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="7">
+      <c r="W7" s="7">
         <v>2</v>
       </c>
-      <c r="V7" s="7">
+      <c r="X7" s="7">
         <v>2</v>
       </c>
-      <c r="W7" s="9">
+      <c r="Y7" s="9">
         <v>9860812334</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="AA7" s="7">
         <v>2</v>
       </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AD7" s="7">
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AF7" s="7">
         <v>2</v>
       </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
+      <c r="AG7" s="8"/>
       <c r="AH7" s="9"/>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1373,39 +1409,47 @@
       <c r="O8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="P8" s="13">
+        <f t="shared" ca="1" si="1"/>
+        <v>23505.563919791668</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>63505.563919791668</v>
+      </c>
+      <c r="S8" s="7">
         <v>3</v>
       </c>
-      <c r="R8" s="7">
+      <c r="T8" s="7">
         <v>3</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="U8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="7">
+      <c r="W8" s="7">
         <v>3</v>
       </c>
-      <c r="V8" s="7">
+      <c r="X8" s="7">
         <v>3</v>
       </c>
-      <c r="W8" s="9">
+      <c r="Y8" s="9">
         <v>8950338110</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="AA8" s="7">
         <v>3</v>
       </c>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AD8" s="7">
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AF8" s="7">
         <v>3</v>
       </c>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
+      <c r="AG8" s="8"/>
       <c r="AH8" s="9"/>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1443,39 +1487,47 @@
       <c r="O9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="13">
+        <f t="shared" ca="1" si="1"/>
+        <v>23505.563919791668</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>63505.563919791668</v>
+      </c>
+      <c r="S9" s="7">
         <v>4</v>
       </c>
-      <c r="R9" s="7">
+      <c r="T9" s="7">
         <v>4</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="U9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="7">
+      <c r="W9" s="7">
         <v>4</v>
       </c>
-      <c r="V9" s="7">
+      <c r="X9" s="7">
         <v>4</v>
       </c>
-      <c r="W9" s="9">
+      <c r="Y9" s="9">
         <v>7870427824</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="AA9" s="7">
         <v>4</v>
       </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AD9" s="7">
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AF9" s="7">
         <v>4</v>
       </c>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
+      <c r="AG9" s="8"/>
       <c r="AH9" s="9"/>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1513,39 +1565,47 @@
       <c r="O10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="P10" s="13">
+        <f t="shared" ca="1" si="1"/>
+        <v>23505.563919791668</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>63505.563919791668</v>
+      </c>
+      <c r="S10" s="7">
         <v>5</v>
       </c>
-      <c r="R10" s="7">
+      <c r="T10" s="7">
         <v>5</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="U10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="7">
+      <c r="W10" s="7">
         <v>5</v>
       </c>
-      <c r="V10" s="7">
+      <c r="X10" s="7">
         <v>5</v>
       </c>
-      <c r="W10" s="9">
+      <c r="Y10" s="9">
         <v>7850339654</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="AA10" s="7">
         <v>5</v>
       </c>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AD10" s="7">
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AF10" s="7">
         <v>5</v>
       </c>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
+      <c r="AG10" s="8"/>
       <c r="AH10" s="9"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1555,17 +1615,17 @@
       <c r="J11" s="3"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="4"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="4"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="4"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="S11" s="1"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="3"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="4"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="4"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1575,17 +1635,17 @@
       <c r="J12" s="3"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="3"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="4"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="4"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="4"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="S12" s="1"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="3"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="4"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="4"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1595,17 +1655,17 @@
       <c r="J13" s="3"/>
       <c r="M13" s="1"/>
       <c r="N13" s="4"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="3"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="4"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="4"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="4"/>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="S13" s="1"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="3"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="4"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="4"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1615,17 +1675,17 @@
       <c r="J14" s="3"/>
       <c r="M14" s="1"/>
       <c r="N14" s="4"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="3"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="4"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="4"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="4"/>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="S14" s="1"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="3"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="4"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="4"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1635,17 +1695,17 @@
       <c r="J15" s="3"/>
       <c r="M15" s="1"/>
       <c r="N15" s="4"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="3"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="4"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="4"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="4"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="S15" s="1"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="3"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="4"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="4"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1655,17 +1715,17 @@
       <c r="J16" s="3"/>
       <c r="M16" s="1"/>
       <c r="N16" s="4"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="3"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="4"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="4"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="4"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S16" s="1"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="3"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="4"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="4"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1675,17 +1735,17 @@
       <c r="J17" s="3"/>
       <c r="M17" s="1"/>
       <c r="N17" s="4"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="3"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="4"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="4"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="4"/>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S17" s="1"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="3"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="4"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="4"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1695,17 +1755,17 @@
       <c r="J18" s="3"/>
       <c r="M18" s="1"/>
       <c r="N18" s="4"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="3"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="4"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="4"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="4"/>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S18" s="1"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="3"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="4"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="4"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1715,17 +1775,17 @@
       <c r="J19" s="3"/>
       <c r="M19" s="1"/>
       <c r="N19" s="4"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="4"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="4"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="4"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S19" s="1"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="3"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="4"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="4"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="4"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1735,17 +1795,17 @@
       <c r="J20" s="3"/>
       <c r="M20" s="1"/>
       <c r="N20" s="4"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="3"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="4"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="4"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="4"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S20" s="1"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="3"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="4"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="4"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1755,17 +1815,17 @@
       <c r="J21" s="3"/>
       <c r="M21" s="1"/>
       <c r="N21" s="4"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="4"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="4"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="4"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S21" s="1"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="3"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="4"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="4"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1775,17 +1835,17 @@
       <c r="J22" s="3"/>
       <c r="M22" s="1"/>
       <c r="N22" s="4"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="3"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="4"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="4"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="4"/>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S22" s="1"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="3"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="4"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="4"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="4"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1795,17 +1855,17 @@
       <c r="J23" s="3"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="3"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="4"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="4"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="4"/>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S23" s="1"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="3"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="4"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="4"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="4"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1815,17 +1875,17 @@
       <c r="J24" s="3"/>
       <c r="M24" s="1"/>
       <c r="N24" s="2"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="2"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="2"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="2"/>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S24" s="1"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="3"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="2"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="2"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="2"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1835,15 +1895,15 @@
       <c r="J25" s="3"/>
       <c r="M25" s="1"/>
       <c r="N25" s="2"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="2"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="2"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="2"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="3"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="2"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="2"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -1041,7 +1041,7 @@
   <dimension ref="B4:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M6" sqref="M6:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,12 +1254,10 @@
         <v>32</v>
       </c>
       <c r="P6" s="13">
-        <f ca="1">NOW()-20000</f>
-        <v>23505.563919791668</v>
+        <v>29221</v>
       </c>
       <c r="Q6" s="13">
-        <f ca="1">NOW()+20000</f>
-        <v>63505.563919791668</v>
+        <v>42320</v>
       </c>
       <c r="S6" s="7">
         <v>1</v>
@@ -1332,12 +1330,10 @@
         <v>31</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" ref="P7:P10" ca="1" si="1">NOW()-20000</f>
-        <v>23505.563919791668</v>
+        <v>29222</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" ref="Q7:Q10" ca="1" si="2">NOW()+20000</f>
-        <v>63505.563919791668</v>
+        <v>42321</v>
       </c>
       <c r="S7" s="7">
         <v>2</v>
@@ -1410,12 +1406,10 @@
         <v>33</v>
       </c>
       <c r="P8" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>23505.563919791668</v>
+        <v>29223</v>
       </c>
       <c r="Q8" s="13">
-        <f t="shared" ca="1" si="2"/>
-        <v>63505.563919791668</v>
+        <v>42322</v>
       </c>
       <c r="S8" s="7">
         <v>3</v>
@@ -1488,12 +1482,10 @@
         <v>34</v>
       </c>
       <c r="P9" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>23505.563919791668</v>
+        <v>29224</v>
       </c>
       <c r="Q9" s="13">
-        <f t="shared" ca="1" si="2"/>
-        <v>63505.563919791668</v>
+        <v>42323</v>
       </c>
       <c r="S9" s="7">
         <v>4</v>
@@ -1566,12 +1558,10 @@
         <v>35</v>
       </c>
       <c r="P10" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>23505.563919791668</v>
+        <v>29225</v>
       </c>
       <c r="Q10" s="13">
-        <f t="shared" ca="1" si="2"/>
-        <v>63505.563919791668</v>
+        <v>42324</v>
       </c>
       <c r="S10" s="7">
         <v>5</v>

--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:U5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,19 +1058,19 @@
     <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="5" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="5" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" style="5" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="9.7109375" style="5" customWidth="1"/>
     <col min="28" max="28" width="13.42578125" style="5" customWidth="1"/>
     <col min="29" max="29" width="12.85546875" style="5" customWidth="1"/>
@@ -1119,12 +1119,13 @@
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">

--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,19 +1058,19 @@
     <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="11.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="5" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" style="5" customWidth="1"/>
     <col min="27" max="27" width="9.7109375" style="5" customWidth="1"/>
     <col min="28" max="28" width="13.42578125" style="5" customWidth="1"/>
     <col min="29" max="29" width="12.85546875" style="5" customWidth="1"/>

--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Databases\CAB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
   <si>
     <t>namefirst</t>
   </si>
@@ -165,9 +160,6 @@
     <t>onduty Table</t>
   </si>
   <si>
-    <t>vehicleID(FK)</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -190,18 +182,27 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Login ADD</t>
+  </si>
+  <si>
+    <t>Logout Dirver - OnDuty Driver --&gt; OffDuity</t>
+  </si>
+  <si>
+    <t>OFFDuty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +420,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,21 +597,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
@@ -629,7 +630,7 @@
     <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="21">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -647,7 +648,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
@@ -685,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -724,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -763,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -802,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -841,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -880,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -890,7 +891,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -900,7 +901,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -910,7 +911,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -920,7 +921,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -930,7 +931,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -940,7 +941,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -950,7 +951,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -960,7 +961,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -970,7 +971,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -980,7 +981,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -990,7 +991,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1000,7 +1001,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1010,7 +1011,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1020,7 +1021,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1037,14 +1038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:AJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
@@ -1079,10 +1080,11 @@
     <col min="32" max="32" width="9.7109375" style="5" customWidth="1"/>
     <col min="33" max="33" width="13.42578125" style="5" customWidth="1"/>
     <col min="34" max="34" width="12.85546875" style="5" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="5"/>
+    <col min="35" max="37" width="9.140625" style="5" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:36" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" ht="21">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1120,14 +1122,14 @@
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
       <c r="AF4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36">
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
@@ -1162,13 +1164,13 @@
         <v>42</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>40</v>
@@ -1186,37 +1188,37 @@
         <v>42</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AB5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AD5" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AG5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="AI5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ5" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:36">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -1292,7 +1294,7 @@
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1368,7 +1370,7 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1444,7 +1446,7 @@
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1520,7 +1522,7 @@
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1596,7 +1598,7 @@
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1616,7 +1618,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1631,12 +1633,14 @@
       <c r="U12" s="3"/>
       <c r="W12" s="1"/>
       <c r="X12" s="4"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AB12" s="4"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1656,7 +1660,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1676,7 +1680,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1696,7 +1700,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1716,7 +1720,7 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1736,7 +1740,7 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1751,12 +1755,14 @@
       <c r="U18" s="3"/>
       <c r="W18" s="1"/>
       <c r="X18" s="4"/>
-      <c r="AA18" s="1"/>
+      <c r="AA18" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="AB18" s="4"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1771,12 +1777,14 @@
       <c r="U19" s="3"/>
       <c r="W19" s="1"/>
       <c r="X19" s="4"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AB19" s="4"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="4"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1796,7 +1804,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="4"/>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1816,7 +1824,7 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1836,7 +1844,7 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1856,7 +1864,7 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1876,7 +1884,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>

--- a/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
+++ b/ERP, STUDENT, and CAB Databases/CAB/infoway_cab.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Databases\CAB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>namefirst</t>
   </si>
@@ -160,6 +165,9 @@
     <t>onduty Table</t>
   </si>
   <si>
+    <t>vehicleID(FK)</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -182,27 +190,18 @@
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>Login ADD</t>
-  </si>
-  <si>
-    <t>Logout Dirver - OnDuty Driver --&gt; OffDuity</t>
-  </si>
-  <si>
-    <t>OFFDuty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,21 +596,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
@@ -630,7 +629,7 @@
     <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="21">
+    <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -648,7 +647,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
@@ -686,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -725,7 +724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -764,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -803,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -842,7 +841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -881,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -891,7 +890,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -901,7 +900,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -911,7 +910,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -921,7 +920,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -931,7 +930,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -941,7 +940,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -951,7 +950,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -961,7 +960,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -971,7 +970,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -981,7 +980,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -991,7 +990,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1001,7 +1000,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1011,7 +1010,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1021,7 +1020,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1038,14 +1037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:Q5"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
@@ -1080,11 +1079,10 @@
     <col min="32" max="32" width="9.7109375" style="5" customWidth="1"/>
     <col min="33" max="33" width="13.42578125" style="5" customWidth="1"/>
     <col min="34" max="34" width="12.85546875" style="5" customWidth="1"/>
-    <col min="35" max="37" width="9.140625" style="5" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="5"/>
+    <col min="35" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:36" ht="21">
+    <row r="4" spans="2:36" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1122,14 +1120,14 @@
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
       <c r="AF4" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
     </row>
-    <row r="5" spans="2:36">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
@@ -1164,13 +1162,13 @@
         <v>42</v>
       </c>
       <c r="O5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>40</v>
@@ -1188,37 +1186,37 @@
         <v>42</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -1294,7 +1292,7 @@
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
     </row>
-    <row r="7" spans="2:36">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1370,7 +1368,7 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="2:36">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1446,7 +1444,7 @@
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
     </row>
-    <row r="9" spans="2:36">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1522,7 +1520,7 @@
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
     </row>
-    <row r="10" spans="2:36">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1598,7 +1596,7 @@
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
     </row>
-    <row r="11" spans="2:36">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1618,7 +1616,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="2:36">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1633,14 +1631,12 @@
       <c r="U12" s="3"/>
       <c r="W12" s="1"/>
       <c r="X12" s="4"/>
-      <c r="AA12" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="4"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="2:36">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1660,7 +1656,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="2:36">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1680,7 +1676,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="2:36">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1700,7 +1696,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="2:36">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1720,7 +1716,7 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1740,7 +1736,7 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1755,14 +1751,12 @@
       <c r="U18" s="3"/>
       <c r="W18" s="1"/>
       <c r="X18" s="4"/>
-      <c r="AA18" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="AA18" s="1"/>
       <c r="AB18" s="4"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1777,14 +1771,12 @@
       <c r="U19" s="3"/>
       <c r="W19" s="1"/>
       <c r="X19" s="4"/>
-      <c r="AA19" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="4"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="4"/>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1804,7 +1796,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="4"/>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1824,7 +1816,7 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1844,7 +1836,7 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1864,7 +1856,7 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1884,7 +1876,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
